--- a/biology/Botanique/Cyanidium/Cyanidium.xlsx
+++ b/biology/Botanique/Cyanidium/Cyanidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanidium est un genre d’algues rouges de la famille des Cyanidiaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Cyanidium, dérivé de  κύανος / kýanos, bleu, et du diminutif "-ίδιον" / "-idiom" (du grec ειδψ / eidon, « avoir l'air de »), littéralement « ressemblant à du bleu », en référence à la « pigmentation majoritairement bleue, bien qu'elle soit classée dans les algues rouges »[1], de cette algue extrêmophile[note 1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Cyanidium, dérivé de  κύανος / kýanos, bleu, et du diminutif "-ίδιον" / "-idiom" (du grec ειδψ / eidon, « avoir l'air de »), littéralement « ressemblant à du bleu », en référence à la « pigmentation majoritairement bleue, bien qu'elle soit classée dans les algues rouges », de cette algue extrêmophile[note 1].
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 août 2013) :
 Cyanidium caldarium (Tilden) Geitler (espèce type)
 Cyanidium daedalum (O.Yu.Sentsova) F.D.Ott (Sans vérification)
 Cyanidium maximum (O.Yu.Sentsova) F.D.Ott
 Cyanidium partitum (O.Yu.Sentsova) F.D.Ott (Sans vérification)
 Cyanidium rumpens (G.H.Schwabe) F.D.Ott (Sans vérification)
-Selon ITIS      (3 août 2013)[3], NCBI  (3 août 2013)[4] et World Register of Marine Species                               (3 août 2013)[5] :
+Selon ITIS      (3 août 2013), NCBI  (3 août 2013) et World Register of Marine Species                               (3 août 2013) :
 Cyanidium caldarium (Tilden) Geitler, 1933</t>
         </is>
       </c>
